--- a/WebContent/erpclubdoc/template/the.xlsx
+++ b/WebContent/erpclubdoc/template/the.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\WeChat Files\q1285676831\FileStorage\File\2019-11\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="2670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -121,16 +125,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -406,49 +411,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="20" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20" style="5" customWidth="1"/>
-    <col min="6" max="7" width="9" style="2"/>
+    <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.75" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="男_x000a_女" sqref="C1:C1048576">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="投资人_x000a_总监_x000a_会籍经理_x000a_教练经理_x000a_会籍_x000a_教练" sqref="D1:D1048576">
+      <formula1>"投资人,总监,会籍经理,教练经理,会籍,教练"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="位数为11位手机号" sqref="E1:E1048576">
+      <formula1>11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="未建立关系_x000a_建立关系_x000a_了解需求_x000a_对接产品价值_x000a_要承诺_x000a_暂时搁置_x000a_成交_x000a_未成交" sqref="F1:F1048576">
+      <formula1>"未建立关系,建立关系,了解需求,对接产品价值,要承诺,暂时搁置,成交,未成交"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/WebContent/erpclubdoc/template/the.xlsx
+++ b/WebContent/erpclubdoc/template/the.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\WeChat Files\q1285676831\FileStorage\File\2019-11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PSBL\tomcat8-psbl\code\club\erpclubdoc\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="2670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12996" windowHeight="2676"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -136,6 +136,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -414,21 +416,21 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
     <col min="2" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -441,7 +443,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">

--- a/WebContent/erpclubdoc/template/the.xlsx
+++ b/WebContent/erpclubdoc/template/the.xlsx
@@ -1,106 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PSBL\tomcat8-psbl\code\club\erpclubdoc\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12996" windowHeight="2676"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="2670" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10" count="10">
   <si>
     <t>公司名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>联系人姓名</t>
-    <rPh sb="0" eb="1">
-      <t>hui'y</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>性别</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>职务</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>手机号</t>
-    <rPh sb="0" eb="1">
-      <t>qi't</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>跟进状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键负责人</t>
+  </si>
+  <si>
+    <t>姑</t>
+  </si>
+  <si>
+    <t>姑</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="49" formatCode="@"/>
+  </numFmts>
+  <fonts count="7">
+    <font>
+      <name val="宋体"/>
       <sz val="11"/>
-      <color theme="1"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <name val="华文宋体"/>
+      <charset val="134"/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="华文宋体"/>
-      <family val="3"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,33 +117,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -198,7 +199,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,7 +234,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,26 +413,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="C11">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="7" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" customWidth="1" width="14.375" style="1"/>
+    <col min="2" max="3" customWidth="1" width="20.0" style="1"/>
+    <col min="4" max="4" customWidth="1" width="14.875" style="1"/>
+    <col min="5" max="5" customWidth="1" width="20.0" style="2"/>
+    <col min="6" max="6" customWidth="1" width="14.875" style="1"/>
+    <col min="7" max="7" customWidth="1" width="20.875" style="1"/>
+    <col min="8" max="8" customWidth="1" width="28.625" style="3"/>
+    <col min="9" max="9" customWidth="1" width="9.0" style="3"/>
+    <col min="10" max="16384" customWidth="1" width="9.0" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="8:8" s="4" ht="17.25" customFormat="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -440,36 +443,59 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
+    <row r="2" spans="8:8">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="8:8">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="22" spans="8:8" ht="14.25"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="男_x000a_女" sqref="C1:C1048576">
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" type="list" errorStyle="stop" showInputMessage="1" prompt="男 女" showErrorMessage="1" sqref="C1:C65536">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="投资人_x000a_总监_x000a_会籍经理_x000a_教练经理_x000a_会籍_x000a_教练" sqref="D1:D1048576">
-      <formula1>"投资人,总监,会籍经理,教练经理,会籍,教练"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="位数为11位手机号" sqref="E1:E1048576">
+    <dataValidation allowBlank="1" type="textLength" operator="equal" errorStyle="stop" showInputMessage="1" prompt="位数为11位手机号" showErrorMessage="1" sqref="E1:E65536">
       <formula1>11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="未建立关系_x000a_建立关系_x000a_了解需求_x000a_对接产品价值_x000a_要承诺_x000a_暂时搁置_x000a_成交_x000a_未成交" sqref="F1:F1048576">
+    <dataValidation allowBlank="1" type="list" errorStyle="stop" showInputMessage="1" prompt="未建立关系 建立关系 了解需求 对接产品价值 要承诺 暂时搁置 成交 未成交" showErrorMessage="1" sqref="F1:F65536">
       <formula1>"未建立关系,建立关系,了解需求,对接产品价值,要承诺,暂时搁置,成交,未成交"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" type="list" errorStyle="stop" showInputMessage="1" showErrorMessage="1" sqref="H1:H65536">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" type="list" errorStyle="stop" showInputMessage="1" showErrorMessage="1" sqref="D1:D65536">
+      <formula1>"投资人,会籍总监,会籍经理,教练经理,会籍,教练,总经理,私教总监,店长,人事,会籍主管,私教主管,运营经理,市场部经理"</formula1>
+    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WebContent/erpclubdoc/template/the.xlsx
+++ b/WebContent/erpclubdoc/template/the.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="2670" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12930" windowHeight="2925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>公司名称</t>
   </si>
@@ -27,72 +29,75 @@
     <t>职务</t>
   </si>
   <si>
+    <t>跟进状态</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>关键负责人</t>
+  </si>
+  <si>
     <t>手机号</t>
-  </si>
-  <si>
-    <t>跟进状态</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>关键负责人</t>
-  </si>
-  <si>
-    <t>姑</t>
-  </si>
-  <si>
-    <t>姑</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="49" formatCode="@"/>
-  </numFmts>
-  <fonts count="7">
-    <font>
-      <name val="宋体"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
+    <font>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-    </font>
-    <font>
-      <name val="华文宋体"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="华文宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,30 +126,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -153,6 +144,15 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -409,31 +409,36 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="C11">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="14.375" style="1"/>
-    <col min="2" max="3" customWidth="1" width="20.0" style="1"/>
-    <col min="4" max="4" customWidth="1" width="14.875" style="1"/>
-    <col min="5" max="5" customWidth="1" width="20.0" style="2"/>
-    <col min="6" max="6" customWidth="1" width="14.875" style="1"/>
-    <col min="7" max="7" customWidth="1" width="20.875" style="1"/>
-    <col min="8" max="8" customWidth="1" width="28.625" style="3"/>
-    <col min="9" max="9" customWidth="1" width="9.0" style="3"/>
-    <col min="10" max="16384" customWidth="1" width="9.0" style="3"/>
+    <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="9" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:8" s="4" ht="17.25" customFormat="1">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -443,23 +448,23 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="8:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -468,7 +473,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="8:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -477,25 +482,23 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="22" spans="8:8" ht="14.25"/>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation allowBlank="1" type="list" errorStyle="stop" showInputMessage="1" prompt="男 女" showErrorMessage="1" sqref="C1:C65536">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="男 女" sqref="C1:C65536">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" type="textLength" operator="equal" errorStyle="stop" showInputMessage="1" prompt="位数为11位手机号" showErrorMessage="1" sqref="E1:E65536">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="位数为11位手机号" sqref="E1:E65536">
       <formula1>11</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" type="list" errorStyle="stop" showInputMessage="1" prompt="未建立关系 建立关系 了解需求 对接产品价值 要承诺 暂时搁置 成交 未成交" showErrorMessage="1" sqref="F1:F65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="未建立关系 建立关系 了解需求 对接产品价值 要承诺 暂时搁置 成交 未成交" sqref="F1:F65536">
       <formula1>"未建立关系,建立关系,了解需求,对接产品价值,要承诺,暂时搁置,成交,未成交"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" type="list" errorStyle="stop" showInputMessage="1" showErrorMessage="1" sqref="H1:H65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H65536">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" type="list" errorStyle="stop" showInputMessage="1" showErrorMessage="1" sqref="D1:D65536">
-      <formula1>"投资人,会籍总监,会籍经理,教练经理,会籍,教练,总经理,私教总监,店长,人事,会籍主管,私教主管,运营经理,市场部经理"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>